--- a/simulation/data/data_structure.xlsx
+++ b/simulation/data/data_structure.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="17">
   <si>
     <t>V1</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>4 repeatations per item</t>
+  </si>
+  <si>
+    <t>V3</t>
   </si>
 </sst>
 </file>
@@ -411,8 +414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +536,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>13</v>
